--- a/oddball/triggerOddball.xlsx
+++ b/oddball/triggerOddball.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>num</t>
   </si>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t>BIN</t>
+  </si>
+  <si>
+    <t>NC28</t>
+  </si>
+  <si>
+    <t>HF38</t>
+  </si>
+  <si>
+    <t>MM36</t>
+  </si>
+  <si>
+    <t>EB39</t>
   </si>
 </sst>
 </file>
@@ -436,7 +448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I321"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A307" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -6876,15 +6888,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -6930,8 +6942,20 @@
       <c r="P1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -6980,8 +7004,20 @@
       <c r="P2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2">
+        <v>4</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -7029,6 +7065,18 @@
       </c>
       <c r="P3">
         <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
